--- a/excel_user.xlsx
+++ b/excel_user.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -525,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,9 +581,9 @@
       <c r="C2" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="inlineStr">
-        <is>
-          <t>fail</t>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -608,6 +608,864 @@
         <v>1</v>
       </c>
       <c r="D3" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="110" customHeight="1">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_002</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: 1hello@gmail.com
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="110" customHeight="1">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_003</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello.mellow@gmail.com
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="110" customHeight="1">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_004</t>
+        </is>
+      </c>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="110" customHeight="1">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_005</t>
+        </is>
+      </c>
+      <c r="B7" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C7" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="110" customHeight="1">
+      <c r="A8" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_006</t>
+        </is>
+      </c>
+      <c r="B8" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@.com
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="110" customHeight="1">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_007</t>
+        </is>
+      </c>
+      <c r="B9" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: Hello@gmail.com
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C9" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="110" customHeight="1">
+      <c r="A10" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_008</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: @gmail.com
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="110" customHeight="1">
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_009</t>
+        </is>
+      </c>
+      <c r="B11" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: _hello@gmail.com
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C11" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="110" customHeight="1">
+      <c r="A12" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_010</t>
+        </is>
+      </c>
+      <c r="B12" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello.@gmail.com
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="110" customHeight="1">
+      <c r="A13" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_011</t>
+        </is>
+      </c>
+      <c r="B13" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello#mellow@gmail.com
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="110" customHeight="1">
+      <c r="A14" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_012</t>
+        </is>
+      </c>
+      <c r="B14" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="110" customHeight="1">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_013</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com 
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C15" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="110" customHeight="1">
+      <c r="A16" s="9" t="inlineStr">
+        <is>
+          <t>TC_Email_014</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: johnwick@gmail.com
+            password : 12345678
+            repeat password: 12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="110" customHeight="1">
+      <c r="A17" s="9" t="inlineStr">
+        <is>
+          <t>TC_pwd_000</t>
+        </is>
+      </c>
+      <c r="B17" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : 
+            repeat password: 
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C17" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="110" customHeight="1">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>TC_pwd_001</t>
+        </is>
+      </c>
+      <c r="B18" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C18" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="110" customHeight="1">
+      <c r="A19" s="9" t="inlineStr">
+        <is>
+          <t>TC_pwd_002</t>
+        </is>
+      </c>
+      <c r="B19" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd
+            repeat password: pwd
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C19" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="110" customHeight="1">
+      <c r="A20" s="9" t="inlineStr">
+        <is>
+          <t>TC_pwd_003</t>
+        </is>
+      </c>
+      <c r="B20" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : hello@gmail.com
+            repeat password: hello@gmail.com
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="110" customHeight="1">
+      <c r="A21" s="9" t="inlineStr">
+        <is>
+          <t>TC_pwd_004</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C21" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="110" customHeight="1">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>TC_pwd_005</t>
+        </is>
+      </c>
+      <c r="B22" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="110" customHeight="1">
+      <c r="A23" s="9" t="inlineStr">
+        <is>
+          <t>TC_re_pwd_000</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: 
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C23" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="110" customHeight="1">
+      <c r="A24" s="9" t="inlineStr">
+        <is>
+          <t>TC_re_pwd_001</t>
+        </is>
+      </c>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345678
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C24" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="110" customHeight="1">
+      <c r="A25" s="9" t="inlineStr">
+        <is>
+          <t>TC_re_pwd_002</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C25" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="110" customHeight="1">
+      <c r="A26" s="9" t="inlineStr">
+        <is>
+          <t>TC_re_pwd_003</t>
+        </is>
+      </c>
+      <c r="B26" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C26" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="110" customHeight="1">
+      <c r="A27" s="9" t="inlineStr">
+        <is>
+          <t>TC_re_pwd_004</t>
+        </is>
+      </c>
+      <c r="B27" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Select One
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C27" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="110" customHeight="1">
+      <c r="A28" s="9" t="inlineStr">
+        <is>
+          <t>TC_loc_000</t>
+        </is>
+      </c>
+      <c r="B28" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Kathmandu
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C28" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="110" customHeight="1">
+      <c r="A29" s="9" t="inlineStr">
+        <is>
+          <t>TC_loc_001</t>
+        </is>
+      </c>
+      <c r="B29" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Bhaktapur
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C29" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="110" customHeight="1">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>TC_loc_002</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Lalitpur
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C30" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="110" customHeight="1">
+      <c r="A31" s="9" t="inlineStr">
+        <is>
+          <t>TC_loc_003</t>
+        </is>
+      </c>
+      <c r="B31" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Lalitpur
+            gender: 
+            </t>
+        </is>
+      </c>
+      <c r="C31" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="110" customHeight="1">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>TC_gen_000</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Lalitpur
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C32" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="110" customHeight="1">
+      <c r="A33" s="9" t="inlineStr">
+        <is>
+          <t>TC_gen_001</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Lalitpur
+            gender: Female
+            </t>
+        </is>
+      </c>
+      <c r="C33" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="110" customHeight="1">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>TC_gen_002</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Lalitpur
+            gender: Other
+            </t>
+        </is>
+      </c>
+      <c r="C34" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="12" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="110" customHeight="1">
+      <c r="A35" s="9" t="inlineStr">
+        <is>
+          <t>TC_gen_003</t>
+        </is>
+      </c>
+      <c r="B35" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Lalitpur
+            gender: Male, Female, Other
+            </t>
+        </is>
+      </c>
+      <c r="C35" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="14" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="110" customHeight="1">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>TC_gen_004</t>
+        </is>
+      </c>
+      <c r="B36" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+            email: hello@gmail.com
+            password : pwd12345
+            repeat password: pwd12345
+            location: Lalitpur
+            gender: Male
+            </t>
+        </is>
+      </c>
+      <c r="C36" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="12" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
